--- a/data_year/zb/公共管理、社会保障及其他/公安机关受理和查处治安案件数/公安机关查处治安案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/公安机关受理和查处治安案件数/公安机关查处治安案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1051 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16559</v>
+        <v>16043</v>
       </c>
       <c r="C2" t="n">
-        <v>1509622</v>
+        <v>3847468</v>
       </c>
       <c r="D2" t="n">
-        <v>104474</v>
+        <v>102407</v>
       </c>
       <c r="E2" t="n">
-        <v>115462</v>
+        <v>136670</v>
       </c>
       <c r="F2" t="n">
-        <v>327195</v>
+        <v>389983</v>
       </c>
       <c r="G2" t="n">
-        <v>97400</v>
+        <v>144340</v>
       </c>
       <c r="H2" t="n">
-        <v>36441</v>
+        <v>38086</v>
       </c>
       <c r="I2" t="n">
-        <v>69198</v>
+        <v>222715</v>
       </c>
       <c r="J2" t="n">
-        <v>37112</v>
+        <v>26542</v>
       </c>
       <c r="K2" t="n">
-        <v>1650119</v>
+        <v>4125377</v>
       </c>
       <c r="L2" t="n">
-        <v>249419</v>
+        <v>355769</v>
       </c>
       <c r="M2" t="n">
-        <v>6153699</v>
+        <v>12122138</v>
       </c>
       <c r="N2" t="n">
-        <v>35605</v>
+        <v>16745</v>
       </c>
       <c r="O2" t="n">
-        <v>1185955</v>
+        <v>1678846</v>
       </c>
       <c r="P2" t="n">
-        <v>79215</v>
+        <v>136500</v>
       </c>
       <c r="Q2" t="n">
-        <v>360831</v>
+        <v>383567</v>
       </c>
       <c r="R2" t="n">
-        <v>25277</v>
+        <v>27579</v>
       </c>
       <c r="S2" t="n">
-        <v>80240</v>
+        <v>182431</v>
       </c>
       <c r="T2" t="n">
-        <v>66363</v>
+        <v>174826</v>
       </c>
       <c r="U2" t="n">
-        <v>43123</v>
+        <v>32567</v>
       </c>
       <c r="V2" t="n">
-        <v>64089</v>
+        <v>83677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23682</v>
+        <v>18411</v>
       </c>
       <c r="C3" t="n">
-        <v>1869367</v>
+        <v>3887661</v>
       </c>
       <c r="D3" t="n">
-        <v>94687</v>
+        <v>95294</v>
       </c>
       <c r="E3" t="n">
-        <v>145290</v>
+        <v>117617</v>
       </c>
       <c r="F3" t="n">
-        <v>440835</v>
+        <v>477873</v>
       </c>
       <c r="G3" t="n">
-        <v>88089</v>
+        <v>149787</v>
       </c>
       <c r="H3" t="n">
-        <v>34582</v>
+        <v>38236</v>
       </c>
       <c r="I3" t="n">
-        <v>110492</v>
+        <v>261037</v>
       </c>
       <c r="J3" t="n">
-        <v>35325</v>
+        <v>20231</v>
       </c>
       <c r="K3" t="n">
-        <v>2353630</v>
+        <v>4264526</v>
       </c>
       <c r="L3" t="n">
-        <v>267940</v>
+        <v>363522</v>
       </c>
       <c r="M3" t="n">
-        <v>7649785</v>
+        <v>12563823</v>
       </c>
       <c r="N3" t="n">
-        <v>35769</v>
+        <v>15993</v>
       </c>
       <c r="O3" t="n">
-        <v>1416432</v>
+        <v>1814719</v>
       </c>
       <c r="P3" t="n">
-        <v>87971</v>
+        <v>171513</v>
       </c>
       <c r="Q3" t="n">
-        <v>338865</v>
+        <v>363999</v>
       </c>
       <c r="R3" t="n">
-        <v>20971</v>
+        <v>24200</v>
       </c>
       <c r="S3" t="n">
-        <v>110753</v>
+        <v>225829</v>
       </c>
       <c r="T3" t="n">
-        <v>68968</v>
+        <v>149933</v>
       </c>
       <c r="U3" t="n">
-        <v>43922</v>
+        <v>30785</v>
       </c>
       <c r="V3" t="n">
-        <v>62215</v>
+        <v>72657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20231</v>
+        <v>12678</v>
       </c>
       <c r="C4" t="n">
-        <v>2217667</v>
+        <v>4302596</v>
       </c>
       <c r="D4" t="n">
-        <v>86590</v>
+        <v>94306</v>
       </c>
       <c r="E4" t="n">
-        <v>148867</v>
+        <v>109609</v>
       </c>
       <c r="F4" t="n">
-        <v>448294</v>
+        <v>475931</v>
       </c>
       <c r="G4" t="n">
-        <v>101028</v>
+        <v>136616</v>
       </c>
       <c r="H4" t="n">
-        <v>39415</v>
+        <v>31241</v>
       </c>
       <c r="I4" t="n">
-        <v>140236</v>
+        <v>287543</v>
       </c>
       <c r="J4" t="n">
-        <v>32700</v>
+        <v>16978</v>
       </c>
       <c r="K4" t="n">
-        <v>2795182</v>
+        <v>4377838</v>
       </c>
       <c r="L4" t="n">
-        <v>269722</v>
+        <v>441637</v>
       </c>
       <c r="M4" t="n">
-        <v>8772299</v>
+        <v>13310741</v>
       </c>
       <c r="N4" t="n">
-        <v>24312</v>
+        <v>12753</v>
       </c>
       <c r="O4" t="n">
-        <v>1670383</v>
+        <v>1832307</v>
       </c>
       <c r="P4" t="n">
-        <v>105238</v>
+        <v>233497</v>
       </c>
       <c r="Q4" t="n">
-        <v>340184</v>
+        <v>404700</v>
       </c>
       <c r="R4" t="n">
-        <v>18969</v>
+        <v>27615</v>
       </c>
       <c r="S4" t="n">
-        <v>108786</v>
+        <v>234863</v>
       </c>
       <c r="T4" t="n">
-        <v>98005</v>
+        <v>162237</v>
       </c>
       <c r="U4" t="n">
-        <v>42043</v>
+        <v>38014</v>
       </c>
       <c r="V4" t="n">
-        <v>64447</v>
+        <v>77782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20008</v>
+        <v>7050</v>
       </c>
       <c r="C5" t="n">
-        <v>3055496</v>
+        <v>4084254</v>
       </c>
       <c r="D5" t="n">
-        <v>125175</v>
+        <v>83891</v>
       </c>
       <c r="E5" t="n">
-        <v>157360</v>
+        <v>85183</v>
       </c>
       <c r="F5" t="n">
-        <v>415766</v>
+        <v>460004</v>
       </c>
       <c r="G5" t="n">
-        <v>133091</v>
+        <v>128897</v>
       </c>
       <c r="H5" t="n">
-        <v>41036</v>
+        <v>24768</v>
       </c>
       <c r="I5" t="n">
-        <v>193177</v>
+        <v>277698</v>
       </c>
       <c r="J5" t="n">
-        <v>33007</v>
+        <v>14137</v>
       </c>
       <c r="K5" t="n">
-        <v>3640805</v>
+        <v>3992598</v>
       </c>
       <c r="L5" t="n">
-        <v>346000</v>
+        <v>536691</v>
       </c>
       <c r="M5" t="n">
-        <v>11053468</v>
+        <v>12746493</v>
       </c>
       <c r="N5" t="n">
-        <v>23626</v>
+        <v>11239</v>
       </c>
       <c r="O5" t="n">
-        <v>1683624</v>
+        <v>1920436</v>
       </c>
       <c r="P5" t="n">
-        <v>128536</v>
+        <v>271918</v>
       </c>
       <c r="Q5" t="n">
-        <v>639314</v>
+        <v>390697</v>
       </c>
       <c r="R5" t="n">
-        <v>18520</v>
+        <v>19088</v>
       </c>
       <c r="S5" t="n">
-        <v>152414</v>
+        <v>207604</v>
       </c>
       <c r="T5" t="n">
-        <v>144698</v>
+        <v>134759</v>
       </c>
       <c r="U5" t="n">
-        <v>35535</v>
+        <v>32566</v>
       </c>
       <c r="V5" t="n">
-        <v>66280</v>
+        <v>63015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16043</v>
+        <v>6199</v>
       </c>
       <c r="C6" t="n">
-        <v>3847468</v>
+        <v>3408699</v>
       </c>
       <c r="D6" t="n">
-        <v>102407</v>
+        <v>85887</v>
       </c>
       <c r="E6" t="n">
-        <v>136670</v>
+        <v>76830</v>
       </c>
       <c r="F6" t="n">
-        <v>389983</v>
+        <v>423001</v>
       </c>
       <c r="G6" t="n">
-        <v>144340</v>
+        <v>108458</v>
       </c>
       <c r="H6" t="n">
-        <v>38086</v>
+        <v>21501</v>
       </c>
       <c r="I6" t="n">
-        <v>222715</v>
+        <v>212400</v>
       </c>
       <c r="J6" t="n">
-        <v>26542</v>
+        <v>12207</v>
       </c>
       <c r="K6" t="n">
-        <v>4125377</v>
+        <v>3164686</v>
       </c>
       <c r="L6" t="n">
-        <v>355769</v>
+        <v>652949</v>
       </c>
       <c r="M6" t="n">
-        <v>12122138</v>
+        <v>11202216</v>
       </c>
       <c r="N6" t="n">
-        <v>16745</v>
+        <v>11028</v>
       </c>
       <c r="O6" t="n">
-        <v>1678846</v>
+        <v>1988722</v>
       </c>
       <c r="P6" t="n">
-        <v>136500</v>
+        <v>325474</v>
       </c>
       <c r="Q6" t="n">
-        <v>383567</v>
+        <v>363006</v>
       </c>
       <c r="R6" t="n">
-        <v>27579</v>
+        <v>20654</v>
       </c>
       <c r="S6" t="n">
-        <v>182431</v>
+        <v>122624</v>
       </c>
       <c r="T6" t="n">
-        <v>174826</v>
+        <v>115139</v>
       </c>
       <c r="U6" t="n">
-        <v>32567</v>
+        <v>30607</v>
       </c>
       <c r="V6" t="n">
-        <v>83677</v>
+        <v>52145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18411</v>
+        <v>5853</v>
       </c>
       <c r="C7" t="n">
-        <v>3887661</v>
+        <v>3358869</v>
       </c>
       <c r="D7" t="n">
-        <v>95294</v>
+        <v>74853</v>
       </c>
       <c r="E7" t="n">
-        <v>117617</v>
+        <v>70498</v>
       </c>
       <c r="F7" t="n">
-        <v>477873</v>
+        <v>453334</v>
       </c>
       <c r="G7" t="n">
-        <v>149787</v>
+        <v>91118</v>
       </c>
       <c r="H7" t="n">
-        <v>38236</v>
+        <v>20103</v>
       </c>
       <c r="I7" t="n">
-        <v>261037</v>
+        <v>200467</v>
       </c>
       <c r="J7" t="n">
-        <v>20231</v>
+        <v>11806</v>
       </c>
       <c r="K7" t="n">
-        <v>4264526</v>
+        <v>2846317</v>
       </c>
       <c r="L7" t="n">
-        <v>363522</v>
+        <v>786718</v>
       </c>
       <c r="M7" t="n">
-        <v>12563823</v>
+        <v>10971620</v>
       </c>
       <c r="N7" t="n">
-        <v>15993</v>
+        <v>9579</v>
       </c>
       <c r="O7" t="n">
-        <v>1814719</v>
+        <v>1952268</v>
       </c>
       <c r="P7" t="n">
-        <v>171513</v>
+        <v>407081</v>
       </c>
       <c r="Q7" t="n">
-        <v>363999</v>
+        <v>319875</v>
       </c>
       <c r="R7" t="n">
-        <v>24200</v>
+        <v>24335</v>
       </c>
       <c r="S7" t="n">
-        <v>225829</v>
+        <v>124586</v>
       </c>
       <c r="T7" t="n">
-        <v>149933</v>
+        <v>102117</v>
       </c>
       <c r="U7" t="n">
-        <v>30785</v>
+        <v>31763</v>
       </c>
       <c r="V7" t="n">
-        <v>72657</v>
+        <v>80080</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12678</v>
+        <v>3977</v>
       </c>
       <c r="C8" t="n">
-        <v>4302596</v>
+        <v>3315831</v>
       </c>
       <c r="D8" t="n">
-        <v>94306</v>
+        <v>80971</v>
       </c>
       <c r="E8" t="n">
-        <v>109609</v>
+        <v>72435</v>
       </c>
       <c r="F8" t="n">
-        <v>475931</v>
+        <v>479700</v>
       </c>
       <c r="G8" t="n">
-        <v>136616</v>
+        <v>75893</v>
       </c>
       <c r="H8" t="n">
-        <v>31241</v>
+        <v>15343</v>
       </c>
       <c r="I8" t="n">
-        <v>287543</v>
+        <v>204852</v>
       </c>
       <c r="J8" t="n">
-        <v>16978</v>
+        <v>9799</v>
       </c>
       <c r="K8" t="n">
-        <v>4377838</v>
+        <v>2654306</v>
       </c>
       <c r="L8" t="n">
-        <v>441637</v>
+        <v>762285</v>
       </c>
       <c r="M8" t="n">
-        <v>13310741</v>
+        <v>10652132</v>
       </c>
       <c r="N8" t="n">
-        <v>12753</v>
+        <v>9847</v>
       </c>
       <c r="O8" t="n">
-        <v>1832307</v>
+        <v>1872106</v>
       </c>
       <c r="P8" t="n">
-        <v>233497</v>
+        <v>368080</v>
       </c>
       <c r="Q8" t="n">
-        <v>404700</v>
+        <v>301208</v>
       </c>
       <c r="R8" t="n">
-        <v>27615</v>
+        <v>32647</v>
       </c>
       <c r="S8" t="n">
-        <v>234863</v>
+        <v>158326</v>
       </c>
       <c r="T8" t="n">
-        <v>162237</v>
+        <v>105243</v>
       </c>
       <c r="U8" t="n">
-        <v>38014</v>
+        <v>33331</v>
       </c>
       <c r="V8" t="n">
-        <v>77782</v>
+        <v>95952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7050</v>
+        <v>5212</v>
       </c>
       <c r="C9" t="n">
-        <v>4084254</v>
+        <v>2952880</v>
       </c>
       <c r="D9" t="n">
-        <v>83891</v>
+        <v>85899</v>
       </c>
       <c r="E9" t="n">
-        <v>85183</v>
+        <v>80458</v>
       </c>
       <c r="F9" t="n">
-        <v>460004</v>
+        <v>359352</v>
       </c>
       <c r="G9" t="n">
-        <v>128897</v>
+        <v>65150</v>
       </c>
       <c r="H9" t="n">
-        <v>24768</v>
+        <v>10958</v>
       </c>
       <c r="I9" t="n">
-        <v>277698</v>
+        <v>189348</v>
       </c>
       <c r="J9" t="n">
-        <v>14137</v>
+        <v>9226</v>
       </c>
       <c r="K9" t="n">
-        <v>3992598</v>
+        <v>2429352</v>
       </c>
       <c r="L9" t="n">
-        <v>536691</v>
+        <v>670332</v>
       </c>
       <c r="M9" t="n">
-        <v>12746493</v>
+        <v>9609333</v>
       </c>
       <c r="N9" t="n">
         <v>11239</v>
       </c>
       <c r="O9" t="n">
-        <v>1920436</v>
+        <v>1756479</v>
       </c>
       <c r="P9" t="n">
-        <v>271918</v>
+        <v>270212</v>
       </c>
       <c r="Q9" t="n">
-        <v>390697</v>
+        <v>263506</v>
       </c>
       <c r="R9" t="n">
-        <v>19088</v>
+        <v>64452</v>
       </c>
       <c r="S9" t="n">
-        <v>207604</v>
+        <v>141409</v>
       </c>
       <c r="T9" t="n">
-        <v>134759</v>
+        <v>111155</v>
       </c>
       <c r="U9" t="n">
-        <v>32566</v>
+        <v>39562</v>
       </c>
       <c r="V9" t="n">
-        <v>63015</v>
+        <v>93152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6199</v>
+        <v>5160</v>
       </c>
       <c r="C10" t="n">
-        <v>3408699</v>
+        <v>2647725</v>
       </c>
       <c r="D10" t="n">
-        <v>85887</v>
+        <v>102202</v>
       </c>
       <c r="E10" t="n">
-        <v>76830</v>
+        <v>100940</v>
       </c>
       <c r="F10" t="n">
-        <v>423001</v>
+        <v>338081</v>
       </c>
       <c r="G10" t="n">
-        <v>108458</v>
+        <v>56183</v>
       </c>
       <c r="H10" t="n">
-        <v>21501</v>
+        <v>7106</v>
       </c>
       <c r="I10" t="n">
-        <v>212400</v>
+        <v>160300</v>
       </c>
       <c r="J10" t="n">
-        <v>12207</v>
+        <v>9361</v>
       </c>
       <c r="K10" t="n">
-        <v>3164686</v>
+        <v>2222805</v>
       </c>
       <c r="L10" t="n">
-        <v>652949</v>
+        <v>526974</v>
       </c>
       <c r="M10" t="n">
-        <v>11202216</v>
+        <v>8845576</v>
       </c>
       <c r="N10" t="n">
-        <v>11028</v>
+        <v>11241</v>
       </c>
       <c r="O10" t="n">
-        <v>1988722</v>
+        <v>1696514</v>
       </c>
       <c r="P10" t="n">
-        <v>325474</v>
+        <v>312783</v>
       </c>
       <c r="Q10" t="n">
-        <v>363006</v>
+        <v>263186</v>
       </c>
       <c r="R10" t="n">
-        <v>20654</v>
+        <v>46535</v>
       </c>
       <c r="S10" t="n">
-        <v>122624</v>
+        <v>122941</v>
       </c>
       <c r="T10" t="n">
-        <v>115139</v>
+        <v>96237</v>
       </c>
       <c r="U10" t="n">
-        <v>30607</v>
+        <v>41696</v>
       </c>
       <c r="V10" t="n">
-        <v>52145</v>
+        <v>77606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5853</v>
+        <v>5068</v>
       </c>
       <c r="C11" t="n">
-        <v>3358869</v>
+        <v>2460490</v>
       </c>
       <c r="D11" t="n">
-        <v>74853</v>
+        <v>114648</v>
       </c>
       <c r="E11" t="n">
-        <v>70498</v>
+        <v>121390</v>
       </c>
       <c r="F11" t="n">
-        <v>453334</v>
+        <v>297600</v>
       </c>
       <c r="G11" t="n">
-        <v>91118</v>
+        <v>50874</v>
       </c>
       <c r="H11" t="n">
-        <v>20103</v>
+        <v>6050</v>
       </c>
       <c r="I11" t="n">
-        <v>200467</v>
+        <v>143581</v>
       </c>
       <c r="J11" t="n">
-        <v>11806</v>
+        <v>10806</v>
       </c>
       <c r="K11" t="n">
-        <v>2846317</v>
+        <v>2119597</v>
       </c>
       <c r="L11" t="n">
-        <v>786718</v>
+        <v>445585</v>
       </c>
       <c r="M11" t="n">
-        <v>10971620</v>
+        <v>8718816</v>
       </c>
       <c r="N11" t="n">
-        <v>9579</v>
+        <v>13216</v>
       </c>
       <c r="O11" t="n">
-        <v>1952268</v>
+        <v>1855376</v>
       </c>
       <c r="P11" t="n">
-        <v>407081</v>
+        <v>439569</v>
       </c>
       <c r="Q11" t="n">
-        <v>319875</v>
+        <v>260901</v>
       </c>
       <c r="R11" t="n">
-        <v>24335</v>
+        <v>44990</v>
       </c>
       <c r="S11" t="n">
-        <v>124586</v>
+        <v>145511</v>
       </c>
       <c r="T11" t="n">
-        <v>102117</v>
+        <v>87614</v>
       </c>
       <c r="U11" t="n">
-        <v>31763</v>
+        <v>44077</v>
       </c>
       <c r="V11" t="n">
-        <v>80080</v>
+        <v>51873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3977</v>
+        <v>2869</v>
       </c>
       <c r="C12" t="n">
-        <v>3315831</v>
+        <v>2002835</v>
       </c>
       <c r="D12" t="n">
-        <v>80971</v>
+        <v>101737</v>
       </c>
       <c r="E12" t="n">
-        <v>72435</v>
+        <v>96540</v>
       </c>
       <c r="F12" t="n">
-        <v>479700</v>
+        <v>193246</v>
       </c>
       <c r="G12" t="n">
-        <v>75893</v>
+        <v>42504</v>
       </c>
       <c r="H12" t="n">
-        <v>15343</v>
+        <v>4871</v>
       </c>
       <c r="I12" t="n">
-        <v>204852</v>
+        <v>117588</v>
       </c>
       <c r="J12" t="n">
-        <v>9799</v>
+        <v>45873</v>
       </c>
       <c r="K12" t="n">
-        <v>2654306</v>
+        <v>1923378</v>
       </c>
       <c r="L12" t="n">
-        <v>762285</v>
+        <v>317774</v>
       </c>
       <c r="M12" t="n">
-        <v>10652132</v>
+        <v>7723930</v>
       </c>
       <c r="N12" t="n">
-        <v>9847</v>
+        <v>10895</v>
       </c>
       <c r="O12" t="n">
-        <v>1872106</v>
+        <v>1741118</v>
       </c>
       <c r="P12" t="n">
-        <v>368080</v>
+        <v>585188</v>
       </c>
       <c r="Q12" t="n">
-        <v>301208</v>
+        <v>243790</v>
       </c>
       <c r="R12" t="n">
-        <v>32647</v>
+        <v>37276</v>
       </c>
       <c r="S12" t="n">
-        <v>158326</v>
+        <v>134926</v>
       </c>
       <c r="T12" t="n">
-        <v>105243</v>
+        <v>59618</v>
       </c>
       <c r="U12" t="n">
-        <v>33331</v>
+        <v>37880</v>
       </c>
       <c r="V12" t="n">
-        <v>95952</v>
+        <v>24024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5212</v>
+        <v>1884</v>
       </c>
       <c r="C13" t="n">
-        <v>2952880</v>
+        <v>2104469</v>
       </c>
       <c r="D13" t="n">
-        <v>85899</v>
+        <v>133375</v>
       </c>
       <c r="E13" t="n">
-        <v>80458</v>
+        <v>106365</v>
       </c>
       <c r="F13" t="n">
-        <v>359352</v>
+        <v>164705</v>
       </c>
       <c r="G13" t="n">
-        <v>65150</v>
+        <v>45993</v>
       </c>
       <c r="H13" t="n">
-        <v>10958</v>
+        <v>4810</v>
       </c>
       <c r="I13" t="n">
-        <v>189348</v>
+        <v>98851</v>
       </c>
       <c r="J13" t="n">
-        <v>9226</v>
+        <v>54384</v>
       </c>
       <c r="K13" t="n">
-        <v>2429352</v>
+        <v>2164362</v>
       </c>
       <c r="L13" t="n">
-        <v>670332</v>
+        <v>239724</v>
       </c>
       <c r="M13" t="n">
-        <v>9609333</v>
+        <v>8205100</v>
       </c>
       <c r="N13" t="n">
-        <v>11239</v>
+        <v>14583</v>
       </c>
       <c r="O13" t="n">
-        <v>1756479</v>
+        <v>1963694</v>
       </c>
       <c r="P13" t="n">
-        <v>270212</v>
+        <v>541456</v>
       </c>
       <c r="Q13" t="n">
-        <v>263506</v>
+        <v>269961</v>
       </c>
       <c r="R13" t="n">
-        <v>64452</v>
+        <v>45131</v>
       </c>
       <c r="S13" t="n">
-        <v>141409</v>
+        <v>127843</v>
       </c>
       <c r="T13" t="n">
-        <v>111155</v>
+        <v>67818</v>
       </c>
       <c r="U13" t="n">
-        <v>39562</v>
+        <v>33492</v>
       </c>
       <c r="V13" t="n">
-        <v>93152</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5160</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2647725</v>
-      </c>
-      <c r="D14" t="n">
-        <v>102202</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100940</v>
-      </c>
-      <c r="F14" t="n">
-        <v>338081</v>
-      </c>
-      <c r="G14" t="n">
-        <v>56183</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7106</v>
-      </c>
-      <c r="I14" t="n">
-        <v>160300</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9361</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2222805</v>
-      </c>
-      <c r="L14" t="n">
-        <v>526974</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8845576</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11241</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1696514</v>
-      </c>
-      <c r="P14" t="n">
-        <v>312783</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>263186</v>
-      </c>
-      <c r="R14" t="n">
-        <v>46535</v>
-      </c>
-      <c r="S14" t="n">
-        <v>122941</v>
-      </c>
-      <c r="T14" t="n">
-        <v>96237</v>
-      </c>
-      <c r="U14" t="n">
-        <v>41696</v>
-      </c>
-      <c r="V14" t="n">
-        <v>77606</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5068</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2460490</v>
-      </c>
-      <c r="D15" t="n">
-        <v>114648</v>
-      </c>
-      <c r="E15" t="n">
-        <v>121390</v>
-      </c>
-      <c r="F15" t="n">
-        <v>297600</v>
-      </c>
-      <c r="G15" t="n">
-        <v>50874</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6050</v>
-      </c>
-      <c r="I15" t="n">
-        <v>143581</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10806</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2119597</v>
-      </c>
-      <c r="L15" t="n">
-        <v>445585</v>
-      </c>
-      <c r="M15" t="n">
-        <v>8718816</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13216</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1855376</v>
-      </c>
-      <c r="P15" t="n">
-        <v>439569</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>260901</v>
-      </c>
-      <c r="R15" t="n">
-        <v>44990</v>
-      </c>
-      <c r="S15" t="n">
-        <v>145511</v>
-      </c>
-      <c r="T15" t="n">
-        <v>87614</v>
-      </c>
-      <c r="U15" t="n">
-        <v>44077</v>
-      </c>
-      <c r="V15" t="n">
-        <v>51873</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2869</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2002835</v>
-      </c>
-      <c r="D16" t="n">
-        <v>101737</v>
-      </c>
-      <c r="E16" t="n">
-        <v>96540</v>
-      </c>
-      <c r="F16" t="n">
-        <v>193246</v>
-      </c>
-      <c r="G16" t="n">
-        <v>42504</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4871</v>
-      </c>
-      <c r="I16" t="n">
-        <v>117588</v>
-      </c>
-      <c r="J16" t="n">
-        <v>45873</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1923378</v>
-      </c>
-      <c r="L16" t="n">
-        <v>317774</v>
-      </c>
-      <c r="M16" t="n">
-        <v>7723930</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10895</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1741118</v>
-      </c>
-      <c r="P16" t="n">
-        <v>585188</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>243790</v>
-      </c>
-      <c r="R16" t="n">
-        <v>37276</v>
-      </c>
-      <c r="S16" t="n">
-        <v>134926</v>
-      </c>
-      <c r="T16" t="n">
-        <v>59618</v>
-      </c>
-      <c r="U16" t="n">
-        <v>37880</v>
-      </c>
-      <c r="V16" t="n">
-        <v>24024</v>
+        <v>22200</v>
       </c>
     </row>
   </sheetData>
